--- a/run/output/iecorrect/iecorrect-gen.xlsx
+++ b/run/output/iecorrect/iecorrect-gen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F7B62D-14D8-41EF-A6C2-4512EDB7F000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96903D0-11C4-4DC5-9AA4-3634C068C8FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>strvar</t>
   </si>
   <si>
-    <t>idvalue</t>
-  </si>
-  <si>
     <t>valuecurrent</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>idvalue</t>
-  </si>
-  <si>
     <t>valuecurrent</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>idvalue</t>
-  </si>
-  <si>
     <t>initials</t>
   </si>
   <si>
@@ -128,6 +119,12 @@
   </si>
   <si>
     <t>varname</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>n_obs</t>
   </si>
 </sst>
 </file>
@@ -492,28 +489,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -534,30 +533,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -591,223 +590,223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -818,24 +817,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
